--- a/data_in/temporal/Efficiency_Enhancement_Rates_Applications.xlsx
+++ b/data_in/temporal/Efficiency_Enhancement_Rates_Applications.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="15">
   <si>
     <t>Beleuchtung</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>until year</t>
+  </si>
+  <si>
+    <t>Nichtenergetischer Erdgasverbrauch</t>
+  </si>
+  <si>
+    <t>Industriekraftwerke</t>
   </si>
 </sst>
 </file>
@@ -98,21 +104,15 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -148,23 +148,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -191,11 +180,8 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="135" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="135"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -514,7 +500,7 @@
   <dimension ref="A1:R36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="J3" sqref="J1:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,7 +508,7 @@
     <col min="13" max="18" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -550,64 +536,72 @@
       <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="6"/>
+      <c r="J1" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2035</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="10">
         <v>0.03</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="10">
         <v>-4.0000000000000001E-3</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="10">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="10">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="10">
         <v>2E-3</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="10">
         <v>1.2E-2</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="10">
         <v>1.2E-2</v>
+      </c>
+      <c r="J2" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2050</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>-2E-3</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <v>1.6500000000000001E-2</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="10">
         <v>1E-3</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="10">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="10">
         <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J3" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="14:18" x14ac:dyDescent="0.25">
@@ -690,7 +684,7 @@
   <dimension ref="A1:R36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:E3"/>
+      <selection activeCell="F1" sqref="F1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,7 +693,7 @@
     <col min="13" max="18" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -715,7 +709,9 @@
       <c r="E1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="4"/>
+      <c r="F1" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="5"/>
@@ -725,43 +721,47 @@
       <c r="A2">
         <v>2035</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="10">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <v>2E-3</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="10">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="10">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
+      <c r="F2" s="10">
+        <v>0</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2050</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <v>1.6500000000000001E-2</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>1E-3</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="F3" s="10">
+        <v>0</v>
+      </c>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="25" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N25" s="1"/>
@@ -843,12 +843,12 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:I3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -876,85 +876,93 @@
       <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="10"/>
+      <c r="J1" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2035</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="10">
         <v>0.03</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D2" s="11">
         <v>-4.0000000000000001E-3</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="11">
         <v>0.01</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="11">
         <v>0.02</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="11">
         <v>0.01</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="10">
         <v>1.2E-2</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="10">
         <v>1.2E-2</v>
+      </c>
+      <c r="J2" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2050</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="D3" s="11">
         <v>-2E-3</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <v>0.01</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="10">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="10">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="10">
         <v>6.0000000000000001E-3</v>
       </c>
+      <c r="J3" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -963,15 +971,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="88.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -999,64 +1007,81 @@
       <c r="I1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="10"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2035</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="10">
         <v>0.02</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="10">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="10">
         <v>0.01</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="10">
         <v>0.01</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="10">
         <v>0.01</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="10">
         <v>0.01</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="10">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J2" s="10">
+        <v>0</v>
+      </c>
+      <c r="K2" s="10">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2050</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <v>0.01</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="E3" s="11">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="F3" s="11">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="G3" s="11">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="H3" s="11">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="I3" s="11">
-        <v>7.4999999999999997E-3</v>
+      <c r="E3" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F3" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G3" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H3" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I3" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J3" s="10">
+        <v>0</v>
+      </c>
+      <c r="K3" s="10">
+        <v>1E-3</v>
       </c>
     </row>
   </sheetData>

--- a/data_in/temporal/Efficiency_Enhancement_Rates_Applications.xlsx
+++ b/data_in/temporal/Efficiency_Enhancement_Rates_Applications.xlsx
@@ -9,13 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="9675" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="9675" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="eff_enhance_el_cts" sheetId="2" r:id="rId1"/>
     <sheet name="eff_enhance_gas_cts" sheetId="4" r:id="rId2"/>
-    <sheet name="eff_enhance_el_industry" sheetId="5" r:id="rId3"/>
-    <sheet name="eff_enhance_gas_industry" sheetId="3" r:id="rId4"/>
+    <sheet name="eff_enhance_industry" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Beleuchtung</t>
   </si>
@@ -41,10 +40,6 @@
     <t>Prozesskälte</t>
   </si>
   <si>
-    <t>Mechanische 
-Energie</t>
-  </si>
-  <si>
     <t>Prozesswärme</t>
   </si>
   <si>
@@ -54,25 +49,16 @@
     <t>Warmwasser</t>
   </si>
   <si>
-    <t>Prozesswärme &lt;100°C</t>
-  </si>
-  <si>
-    <t>Prozesswärme 100°C-200°C</t>
-  </si>
-  <si>
-    <t>Prozesswärme 200°C-500°C</t>
-  </si>
-  <si>
-    <t>Prozesswärme &gt;500°C</t>
-  </si>
-  <si>
     <t>until year</t>
   </si>
   <si>
-    <t>Nichtenergetischer Erdgasverbrauch</t>
+    <t>Mechanische Energie</t>
   </si>
   <si>
-    <t>Industriekraftwerke</t>
+    <t>Nichtenergetische Nutzung</t>
+  </si>
+  <si>
+    <t>WZ</t>
   </si>
 </sst>
 </file>
@@ -181,7 +167,7 @@
       <alignment horizontal="center" textRotation="135" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -499,8 +485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J1:J3"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,9 +494,9 @@
     <col min="13" max="18" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="89.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -525,19 +511,19 @@
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>13</v>
+      <c r="J1" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -545,28 +531,28 @@
         <v>2035</v>
       </c>
       <c r="B2" s="10">
-        <v>0.03</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="C2" s="10">
-        <v>5.0000000000000001E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="D2" s="10">
-        <v>-4.0000000000000001E-3</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="E2" s="10">
-        <v>1.7000000000000001E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="F2" s="10">
-        <v>3.3000000000000002E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="G2" s="10">
-        <v>2E-3</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="H2" s="10">
-        <v>1.2E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="I2" s="10">
-        <v>1.2E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="J2" s="10">
         <v>0</v>
@@ -577,28 +563,28 @@
         <v>2050</v>
       </c>
       <c r="B3" s="10">
-        <v>1.4999999999999999E-2</v>
+        <v>1.0500000000000001E-2</v>
       </c>
       <c r="C3" s="10">
-        <v>2.5000000000000001E-3</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="D3" s="10">
-        <v>-2E-3</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="E3" s="10">
-        <v>8.5000000000000006E-3</v>
+        <v>1.6500000000000001E-2</v>
       </c>
       <c r="F3" s="10">
-        <v>1.6500000000000001E-2</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="G3" s="10">
-        <v>1E-3</v>
+        <v>6.4999999999999997E-3</v>
       </c>
       <c r="H3" s="10">
-        <v>6.0000000000000001E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="I3" s="10">
-        <v>6.0000000000000001E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="J3" s="10">
         <v>0</v>
@@ -684,7 +670,7 @@
   <dimension ref="A1:R36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F3"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,24 +679,24 @@
     <col min="13" max="18" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="89.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>13</v>
+      <c r="F1" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -722,10 +708,10 @@
         <v>2035</v>
       </c>
       <c r="B2" s="10">
-        <v>3.3000000000000002E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="C2" s="10">
-        <v>2E-3</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="D2" s="10">
         <v>2.5000000000000001E-2</v>
@@ -745,10 +731,10 @@
         <v>2050</v>
       </c>
       <c r="B3" s="10">
-        <v>1.6500000000000001E-2</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C3" s="10">
-        <v>1E-3</v>
+        <v>6.4999999999999997E-3</v>
       </c>
       <c r="D3" s="10">
         <v>1.2500000000000001E-2</v>
@@ -840,248 +826,372 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1">
+        <v>2035</v>
+      </c>
+      <c r="C1">
+        <v>2045</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="B2" s="11">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C2" s="10">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="B3" s="11">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>7</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2035</v>
-      </c>
-      <c r="B2" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="C2" s="10">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="D2" s="11">
-        <v>-4.0000000000000001E-3</v>
-      </c>
-      <c r="E2" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="F2" s="11">
-        <v>0.02</v>
-      </c>
-      <c r="G2" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="H2" s="10">
-        <v>1.2E-2</v>
-      </c>
-      <c r="I2" s="10">
-        <v>1.2E-2</v>
-      </c>
-      <c r="J2" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2050</v>
-      </c>
-      <c r="B3" s="10">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="C3" s="10">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="D3" s="11">
-        <v>-2E-3</v>
-      </c>
-      <c r="E3" s="10">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F3" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="G3" s="10">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H3" s="10">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="I3" s="10">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="J3" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
+      <c r="B4" s="11">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5" s="11">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C5" s="10">
+        <v>1.2999999999999999E-2</v>
+      </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:11" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>9</v>
+      </c>
+      <c r="B6" s="11">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7" s="11">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C7" s="10">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>11</v>
+      </c>
+      <c r="B8" s="11">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C8" s="10">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>12</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="6" t="s">
+      <c r="B9" s="11">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C9" s="10">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>13</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="B10" s="11">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C10" s="10">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2035</v>
-      </c>
-      <c r="B2" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="C2" s="10">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D2" s="10">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E2" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="F2" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="G2" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="H2" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="I2" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="J2" s="10">
-        <v>0</v>
-      </c>
-      <c r="K2" s="10">
+      <c r="B11" s="11">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C11" s="10">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>15</v>
+      </c>
+      <c r="B12" s="11">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C12" s="10">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>16</v>
+      </c>
+      <c r="B13" s="11">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C13" s="10">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>17</v>
+      </c>
+      <c r="B14" s="11">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C14" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>18</v>
+      </c>
+      <c r="B15" s="11">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C15" s="10">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>19</v>
+      </c>
+      <c r="B16" s="11">
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2050</v>
-      </c>
-      <c r="B3" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="C3" s="10">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="D3" s="10">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="E3" s="10">
+      <c r="C16" s="10">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>20</v>
+      </c>
+      <c r="B17" s="11">
+        <v>2E-3</v>
+      </c>
+      <c r="C17" s="10">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>21</v>
+      </c>
+      <c r="B18" s="11">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C18" s="10">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>22</v>
+      </c>
+      <c r="B19" s="11">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C19" s="10">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>23</v>
+      </c>
+      <c r="B20" s="11">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F3" s="10">
+      <c r="C20" s="11">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G3" s="10">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>24</v>
+      </c>
+      <c r="B21" s="11">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C21" s="10">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="H3" s="10">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="I3" s="10">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J3" s="10">
-        <v>0</v>
-      </c>
-      <c r="K3" s="10">
-        <v>1E-3</v>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>25</v>
+      </c>
+      <c r="B22" s="11">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C22" s="10">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>26</v>
+      </c>
+      <c r="B23" s="11">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C23" s="10">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>27</v>
+      </c>
+      <c r="B24" s="11">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C24" s="10">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>28</v>
+      </c>
+      <c r="B25" s="11">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C25" s="10">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>29</v>
+      </c>
+      <c r="B26" s="11">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C26" s="10">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>30</v>
+      </c>
+      <c r="B27" s="11">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C27" s="10">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>31</v>
+      </c>
+      <c r="B28" s="11">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C28" s="10">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>32</v>
+      </c>
+      <c r="B29" s="11">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C29" s="10">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>33</v>
+      </c>
+      <c r="B30" s="11">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C30" s="10">
+        <v>1.2999999999999999E-2</v>
       </c>
     </row>
   </sheetData>
